--- a/Data_point_info.xlsx
+++ b/Data_point_info.xlsx
@@ -1,358 +1,399 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="106">
   <si>
-    <t>YEAR</t>
+    <t xml:space="preserve">YEAR</t>
   </si>
   <si>
     <t xml:space="preserve">Interval </t>
   </si>
   <si>
-    <t># of Events</t>
-  </si>
-  <si>
-    <t>Event points</t>
-  </si>
-  <si>
-    <t>Start Date</t>
-  </si>
-  <si>
-    <t>End Date</t>
-  </si>
-  <si>
-    <t>Interval Kp</t>
-  </si>
-  <si>
-    <t>Event Kp</t>
+    <t xml:space="preserve"># of Events</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Event points</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">End Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interval Kp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Event Kp</t>
   </si>
   <si>
     <t xml:space="preserve">F10.7 Interval </t>
   </si>
   <si>
-    <t>F10.7 Event</t>
-  </si>
-  <si>
-    <t>Used CIS File</t>
-  </si>
-  <si>
-    <t>Used FGM File</t>
-  </si>
-  <si>
-    <t>Data Quality ( With a Focus On Cluster 1 Data)</t>
-  </si>
-  <si>
-    <t>Found crossing points yet?</t>
-  </si>
-  <si>
-    <t>#####</t>
-  </si>
-  <si>
-    <t>####</t>
-  </si>
-  <si>
-    <t>###################</t>
-  </si>
-  <si>
-    <t>8/20 -- 8/22</t>
-  </si>
-  <si>
-    <t>Over 5</t>
-  </si>
-  <si>
-    <t>about 5.5</t>
-  </si>
-  <si>
-    <t>232.5 to 223</t>
-  </si>
-  <si>
-    <t>CIS_C1.cdf</t>
-  </si>
-  <si>
-    <t>FGM_C1.cdf</t>
-  </si>
-  <si>
-    <t>Pretty good, usable, loses some N(O+) and Vx towards end</t>
-  </si>
-  <si>
-    <t>9/3 -- 9/5</t>
-  </si>
-  <si>
-    <t>about 6.5</t>
-  </si>
-  <si>
-    <t>174.5 to 178</t>
-  </si>
-  <si>
-    <t>BLEH, usable, huge chunks of CIS data missing towards end</t>
-  </si>
-  <si>
-    <t>9/7 -- 9/9</t>
-  </si>
-  <si>
-    <t>Over 7</t>
-  </si>
-  <si>
-    <t>185 to 209</t>
-  </si>
-  <si>
-    <t>Pretty damn good, no large chunks of missing data</t>
-  </si>
-  <si>
-    <t>10/15 -- 10/20</t>
-  </si>
-  <si>
-    <t>About 5.5</t>
-  </si>
-  <si>
-    <t>about 3.7</t>
-  </si>
-  <si>
-    <t>175.8 to 178.7 up spike</t>
-  </si>
-  <si>
-    <t>Pretty damn good, a few very small chunks of missing CIS data</t>
-  </si>
-  <si>
-    <t>about 3.5</t>
-  </si>
-  <si>
-    <t>Pretty good, few very small chunks of missing CIS data</t>
-  </si>
-  <si>
-    <t>10/24 -- 10/26</t>
-  </si>
-  <si>
-    <t>About 6.5</t>
-  </si>
-  <si>
-    <t>about 6</t>
-  </si>
-  <si>
-    <t>158.5 to 156 up spike</t>
-  </si>
-  <si>
-    <t>Pretty damn good, few very small chunks of missing CIS data</t>
-  </si>
-  <si>
-    <t>8/20 -- 8/24</t>
-  </si>
-  <si>
-    <t>about 5.7</t>
-  </si>
-  <si>
-    <t>114.5 to 119 parabola</t>
-  </si>
-  <si>
-    <t>CIS_C3.cdf</t>
-  </si>
-  <si>
-    <t>FGM_C3.cdf</t>
-  </si>
-  <si>
-    <t>BLEH, NO C1 CIS DATA, C3 CIS LOOKS PRETTY GOOD, ASK NASA FOR C1 CIS</t>
-  </si>
-  <si>
-    <t>9/15 -- 9/20</t>
-  </si>
-  <si>
-    <t>about 7</t>
-  </si>
-  <si>
-    <t>98.4 to 112.9 up linear</t>
-  </si>
-  <si>
-    <t>PRETTY DAMN GOOD, NO BIG CHUNKS OF MISSING DATA</t>
-  </si>
-  <si>
-    <t>11/18 -- 11/23</t>
-  </si>
-  <si>
-    <t>Over 8</t>
-  </si>
-  <si>
-    <t>exactly 5</t>
-  </si>
-  <si>
-    <t>141 to 173.8 up linear</t>
-  </si>
-  <si>
-    <t>BLEH, LOTS OF MISSING CIS DATA, ESPECIALLY EARLY ON</t>
-  </si>
-  <si>
-    <t>about 4.25</t>
-  </si>
-  <si>
-    <t>GOOD, USABLE, SOME MISSING CHUNKS OF CIS DATA</t>
-  </si>
-  <si>
-    <t>exactly 8.75</t>
-  </si>
-  <si>
-    <t>PRETTY GOOD, SOME SMALL CHUNKS OF MISSING CIS DATA</t>
-  </si>
-  <si>
-    <t>about 7.5</t>
-  </si>
-  <si>
-    <t>BLEH, A FEW MISSING CHUNKS OF CIS DATA</t>
-  </si>
-  <si>
-    <t>exactly 6</t>
-  </si>
-  <si>
-    <t>BLEH, LARGE CHUNKS OF MISSING CIS DATA</t>
-  </si>
-  <si>
-    <t>about 4.5</t>
-  </si>
-  <si>
-    <t>8/30 -- 9/1</t>
-  </si>
-  <si>
-    <t>about 5</t>
-  </si>
-  <si>
-    <t>91.6 to 91.5 inverted spike</t>
-  </si>
-  <si>
-    <t>BLEH, SIGNIFICANT CHUNKS OF MISSING  CIS DATA</t>
-  </si>
-  <si>
-    <t>9/14 -- 9/19</t>
-  </si>
-  <si>
-    <t>116 to 106.1 down linear</t>
-  </si>
-  <si>
-    <t>PRETTY GOOD, NO SIGNIFICANT MISSING DATA CHUNKS</t>
-  </si>
-  <si>
-    <t>about 4.75</t>
-  </si>
-  <si>
-    <t>AVERAGE, SIGNIFICANT CIS CHUNKS MISSING TOWARDS END</t>
-  </si>
-  <si>
-    <t>8/23 -- 8/26</t>
-  </si>
-  <si>
-    <t>OVER 8</t>
-  </si>
-  <si>
-    <t>about 8.5</t>
-  </si>
-  <si>
-    <t>109.3 to 95.2 down linear</t>
-  </si>
-  <si>
-    <t>HOT GARBAGE, BASICALLY MISSING ALL CIS DATA</t>
-  </si>
-  <si>
-    <t>8/31 -- 9/9</t>
-  </si>
-  <si>
-    <t>Over 6</t>
-  </si>
-  <si>
-    <t>85.6 to 100.6 shallow trough</t>
-  </si>
-  <si>
-    <t>about 3.3</t>
-  </si>
-  <si>
-    <t>LUKEWARM GARBAGE, C1 CIS IS DOGSHIT, C3 IS USABLE</t>
-  </si>
-  <si>
-    <t>9/1 -- 9/4</t>
-  </si>
-  <si>
-    <t>96.9 to 99.0 up and down spike</t>
-  </si>
-  <si>
-    <t>CIS_C4.cdf</t>
-  </si>
-  <si>
-    <t>FGM_C4.cdf</t>
-  </si>
-  <si>
-    <t>HOT GARBAGE, C1 CIS SUX, C4 CIS IS MEH</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>about 4.7</t>
+    <t xml:space="preserve">F10.7 Event</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Used CIS File</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Used FGM File</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Quality ( With a Focus On Cluster 1 Data)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Found crossing points yet?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#####</t>
+  </si>
+  <si>
+    <t xml:space="preserve">####</t>
+  </si>
+  <si>
+    <t xml:space="preserve">###################</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8/20 -- 8/22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Over 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">about 5.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">232.5 to 223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS_C1.cdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FGM_C1.cdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pretty good, usable, loses some N(O+) and Vx towards end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9/3 -- 9/5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">about 6.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">174.5 to 178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLEH, usable, huge chunks of CIS data missing towards end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9/7 -- 9/9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Over 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">185 to 209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pretty damn good, no large chunks of missing data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/15 -- 10/20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">About 5.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">about 3.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">175.8 to 178.7 up spike</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pretty damn good, a few very small chunks of missing CIS data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">about 3.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pretty good, few very small chunks of missing CIS data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/24 -- 10/26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">About 6.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">about 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">158.5 to 156 up spike</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pretty damn good, few very small chunks of missing CIS data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8/20 -- 8/24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">about 5.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114.5 to 119 parabola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS_C3.cdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FGM_C3.cdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLEH, NO C1 CIS DATA, C3 CIS LOOKS PRETTY GOOD, ASK NASA FOR C1 CIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9/15 -- 9/20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">about 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98.4 to 112.9 up linear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRETTY DAMN GOOD, NO BIG CHUNKS OF MISSING DATA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/18 -- 11/23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Over 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exactly 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">141 to 173.8 up linear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLEH, LOTS OF MISSING CIS DATA, ESPECIALLY EARLY ON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">about 4.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOOD, USABLE, SOME MISSING CHUNKS OF CIS DATA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exactly 8.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRETTY GOOD, SOME SMALL CHUNKS OF MISSING CIS DATA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">about 7.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLEH, A FEW MISSING CHUNKS OF CIS DATA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exactly 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLEH, LARGE CHUNKS OF MISSING CIS DATA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">about 4.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8/30 -- 9/1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">about 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91.6 to 91.5 inverted spike</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLEH, SIGNIFICANT CHUNKS OF MISSING  CIS DATA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9/14 -- 9/19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116 to 106.1 down linear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRETTY GOOD, NO SIGNIFICANT MISSING DATA CHUNKS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">about 4.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AVERAGE, SIGNIFICANT CIS CHUNKS MISSING TOWARDS END</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8/23 -- 8/26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OVER 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">about 8.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109.3 to 95.2 down linear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOT GARBAGE, BASICALLY MISSING ALL CIS DATA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8/31 -- 9/9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Over 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.6 to 100.6 shallow trough</t>
+  </si>
+  <si>
+    <t xml:space="preserve">about 3.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUKEWARM GARBAGE, C1 CIS IS DOGSHIT, C3 IS USABLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9/1 -- 9/4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96.9 to 99.0 up and down spike</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS_C4.cdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FGM_C4.cdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOT GARBAGE, C1 CIS SUX, C4 CIS IS MEH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">about 4.7</t>
   </si>
   <si>
     <t xml:space="preserve">Over 8 </t>
   </si>
   <si>
-    <t>about 3.8</t>
-  </si>
-  <si>
-    <t>130.4 to 108.7 down linear</t>
-  </si>
-  <si>
-    <t>9/12 -- 9/17</t>
-  </si>
-  <si>
-    <t>about 2</t>
-  </si>
-  <si>
-    <t>76.4 to 72.9 down linear</t>
-  </si>
-  <si>
-    <t>8/26 -- 8/28</t>
-  </si>
-  <si>
-    <t>70.70 to 70.6 broken up dogshit</t>
-  </si>
-  <si>
-    <t>HOT GARBAGE, ONLY C4 CIS, AND ITS MISSING ALL Vx AND N(HIA)</t>
-  </si>
-  <si>
-    <t>9/10 -- 9/12</t>
-  </si>
-  <si>
-    <t>2 about 5</t>
-  </si>
-  <si>
-    <t>70.0 to 69.40 broken up dogshit</t>
+    <t xml:space="preserve">about 3.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">130.4 to 108.7 down linear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9/12 -- 9/17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">about 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76.4 to 72.9 down linear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8/26 -- 8/28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.70 to 70.6 broken up dogshit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOT GARBAGE, ONLY C4 CIS, AND ITS MISSING ALL Vx AND N(HIA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9/10 -- 9/12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 about 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.0 to 69.40 broken up dogshit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="yyyy/mm/dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="yyyy/m/d h:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="m/d/yyyy h:mm:ss"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="6">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="yyyy/mm/dd\ h:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="yyyy/m/d\ h:mm:ss"/>
+    <numFmt numFmtId="167" formatCode="@"/>
+    <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd\Thh:mm:ss"/>
+    <numFmt numFmtId="169" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="7">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
-    <font/>
     <font>
+      <sz val="11"/>
+      <name val="Cambria"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -360,278 +401,131 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
-  <a:themeElements>
-    <a:clrScheme name="Sheets">
-      <a:dk1>
-        <a:srgbClr val="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="000000"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4285F4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="EA4335"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="FBBC04"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="34A853"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="FF6D01"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="46BDC6"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="1155CC"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="1155CC"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Sheets">
-      <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:N63"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D42" activeCellId="0" sqref="D42"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="7.57"/>
-    <col customWidth="1" min="4" max="4" width="46.43"/>
-    <col customWidth="1" min="5" max="5" width="25.57"/>
-    <col customWidth="1" min="6" max="6" width="28.14"/>
-    <col customWidth="1" min="7" max="7" width="22.0"/>
-    <col customWidth="1" min="8" max="8" width="22.14"/>
-    <col customWidth="1" min="9" max="9" width="27.71"/>
-    <col customWidth="1" min="10" max="10" width="12.0"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="13" max="13" width="70.43"/>
-    <col customWidth="1" min="14" max="14" width="37.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="46.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="25.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="28.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="22.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="22.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="27.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="13.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="70.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="37.3"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -675,9 +569,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1">
-        <v>2001.0</v>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>2001</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>14</v>
@@ -708,9 +602,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1">
-        <v>2002.0</v>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>2002</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -725,22 +619,22 @@
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
     </row>
-    <row r="4">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4"/>
       <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D4" s="5">
-        <v>37489.354166666664</v>
-      </c>
-      <c r="E4" s="5">
-        <v>37489.104166666664</v>
-      </c>
-      <c r="F4" s="5">
-        <v>37489.604166666664</v>
+      <c r="C4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>37489.3541666667</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>37489.1041666667</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>37489.6041666667</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>18</v>
@@ -762,22 +656,22 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4"/>
       <c r="B5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D5" s="5">
-        <v>37503.416666666664</v>
-      </c>
-      <c r="E5" s="5">
-        <v>37503.166666666664</v>
-      </c>
-      <c r="F5" s="5">
-        <v>37503.666666666664</v>
+      <c r="C5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>37503.4166666667</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>37503.1666666667</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>37503.6666666667</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>18</v>
@@ -799,21 +693,21 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4"/>
       <c r="B6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D6" s="5">
+      <c r="C6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5" t="n">
         <v>37508.1875</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="5" t="n">
         <v>37507.9375</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="5" t="n">
         <v>37508.4375</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -825,7 +719,7 @@
       <c r="I6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="1" t="n">
         <v>177.7</v>
       </c>
       <c r="K6" s="1" t="s">
@@ -838,22 +732,22 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4"/>
       <c r="B7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D7" s="6">
-        <v>37546.166666666664</v>
-      </c>
-      <c r="E7" s="6">
-        <v>37545.916666666664</v>
-      </c>
-      <c r="F7" s="6">
-        <v>37546.416666666664</v>
+      <c r="C7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>37546.1666666667</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>37545.9166666667</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>37546.4166666667</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>33</v>
@@ -864,7 +758,7 @@
       <c r="I7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="1" t="n">
         <v>178.1</v>
       </c>
       <c r="K7" s="1" t="s">
@@ -878,17 +772,17 @@
       </c>
       <c r="N7" s="7"/>
     </row>
-    <row r="8">
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
-      <c r="D8" s="6">
+      <c r="D8" s="6" t="n">
         <v>37548.375</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="6" t="n">
         <v>37548.125</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="6" t="n">
         <v>37548.625</v>
       </c>
       <c r="G8" s="1" t="s">
@@ -911,22 +805,22 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4"/>
       <c r="B9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D9" s="6">
-        <v>37553.166666666664</v>
-      </c>
-      <c r="E9" s="6">
-        <v>37552.916666666664</v>
-      </c>
-      <c r="F9" s="6">
-        <v>37553.416666666664</v>
+      <c r="C9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>37553.1666666667</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>37552.9166666667</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>37553.4166666667</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>40</v>
@@ -937,7 +831,7 @@
       <c r="I9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="1" t="n">
         <v>158.5</v>
       </c>
       <c r="K9" s="1" t="s">
@@ -950,9 +844,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1">
-        <v>2003.0</v>
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>2003</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -967,22 +861,22 @@
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
     </row>
-    <row r="11">
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4"/>
       <c r="B11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D11" s="5">
-        <v>37855.520833333336</v>
-      </c>
-      <c r="E11" s="5">
-        <v>37855.270833333336</v>
-      </c>
-      <c r="F11" s="5">
-        <v>37855.770833333336</v>
+      <c r="C11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>37855.5208333333</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>37855.2708333333</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>37855.7708333333</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>18</v>
@@ -993,7 +887,7 @@
       <c r="I11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="1" t="n">
         <v>123.7</v>
       </c>
       <c r="K11" s="1" t="s">
@@ -1006,22 +900,22 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4"/>
       <c r="B12" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D12" s="5">
-        <v>37881.541666666664</v>
-      </c>
-      <c r="E12" s="5">
-        <v>37881.291666666664</v>
-      </c>
-      <c r="F12" s="5">
-        <v>37516.791666666664</v>
+      <c r="C12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>37881.5416666667</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>37881.2916666667</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>37516.7916666667</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>18</v>
@@ -1032,8 +926,8 @@
       <c r="I12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J12" s="1">
-        <v>107.0</v>
+      <c r="J12" s="1" t="n">
+        <v>107</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>21</v>
@@ -1045,22 +939,22 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4"/>
       <c r="B13" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="D13" s="6">
-        <v>37943.166666666664</v>
-      </c>
-      <c r="E13" s="6">
-        <v>37942.916666666664</v>
-      </c>
-      <c r="F13" s="6">
-        <v>37943.416666666664</v>
+      <c r="C13" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>37943.1666666667</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>37942.9166666667</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>37943.4166666667</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>55</v>
@@ -1071,8 +965,8 @@
       <c r="I13" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="J13" s="1">
-        <v>141.0</v>
+      <c r="J13" s="1" t="n">
+        <v>141</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>21</v>
@@ -1084,18 +978,18 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
-      <c r="D14" s="6">
+      <c r="D14" s="6" t="n">
         <v>37943.75</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="6" t="n">
         <v>37943.5</v>
       </c>
-      <c r="F14" s="6">
-        <v>37944.0</v>
+      <c r="F14" s="6" t="n">
+        <v>37944</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>55</v>
@@ -1106,8 +1000,8 @@
       <c r="I14" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="J14" s="1">
-        <v>141.0</v>
+      <c r="J14" s="1" t="n">
+        <v>141</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>21</v>
@@ -1119,18 +1013,18 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
-      <c r="D15" s="6">
+      <c r="D15" s="6" t="n">
         <v>37945.75</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="6" t="n">
         <v>37945.5</v>
       </c>
-      <c r="F15" s="6">
-        <v>37946.0</v>
+      <c r="F15" s="6" t="n">
+        <v>37946</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>55</v>
@@ -1141,8 +1035,8 @@
       <c r="I15" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="J15" s="1">
-        <v>171.0</v>
+      <c r="J15" s="1" t="n">
+        <v>171</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>21</v>
@@ -1154,17 +1048,17 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
-      <c r="D16" s="6">
+      <c r="D16" s="6" t="n">
         <v>37946.25</v>
       </c>
-      <c r="E16" s="6">
-        <v>37946.0</v>
-      </c>
-      <c r="F16" s="6">
+      <c r="E16" s="6" t="n">
+        <v>37946</v>
+      </c>
+      <c r="F16" s="6" t="n">
         <v>37946.5</v>
       </c>
       <c r="G16" s="1" t="s">
@@ -1176,7 +1070,7 @@
       <c r="I16" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="1" t="n">
         <v>172.8</v>
       </c>
       <c r="K16" s="1" t="s">
@@ -1189,18 +1083,18 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
-      <c r="D17" s="6">
-        <v>37946.541666666664</v>
-      </c>
-      <c r="E17" s="6">
-        <v>37946.291666666664</v>
-      </c>
-      <c r="F17" s="6">
-        <v>37946.791666666664</v>
+      <c r="D17" s="6" t="n">
+        <v>37946.5416666667</v>
+      </c>
+      <c r="E17" s="6" t="n">
+        <v>37946.2916666667</v>
+      </c>
+      <c r="F17" s="6" t="n">
+        <v>37946.7916666667</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>55</v>
@@ -1211,7 +1105,7 @@
       <c r="I17" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17" s="1" t="n">
         <v>172.8</v>
       </c>
       <c r="K17" s="1" t="s">
@@ -1224,18 +1118,18 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
-      <c r="D18" s="6">
-        <v>37946.833333333336</v>
-      </c>
-      <c r="E18" s="6">
-        <v>37946.583333333336</v>
-      </c>
-      <c r="F18" s="6">
-        <v>37947.083333333336</v>
+      <c r="D18" s="6" t="n">
+        <v>37946.8333333333</v>
+      </c>
+      <c r="E18" s="6" t="n">
+        <v>37946.5833333333</v>
+      </c>
+      <c r="F18" s="6" t="n">
+        <v>37947.0833333333</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>55</v>
@@ -1246,7 +1140,7 @@
       <c r="I18" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18" s="1" t="n">
         <v>172.8</v>
       </c>
       <c r="K18" s="1" t="s">
@@ -1259,9 +1153,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1">
-        <v>2004.0</v>
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>2004</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1276,22 +1170,22 @@
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
     </row>
-    <row r="20">
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4"/>
       <c r="B20" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D20" s="5">
-        <v>38230.583333333336</v>
-      </c>
-      <c r="E20" s="5">
-        <v>38230.333333333336</v>
-      </c>
-      <c r="F20" s="5">
-        <v>38230.833333333336</v>
+      <c r="C20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>38230.5833333333</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>38230.3333333333</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>38230.8333333333</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>29</v>
@@ -1302,7 +1196,7 @@
       <c r="I20" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20" s="1" t="n">
         <v>89.7</v>
       </c>
       <c r="K20" s="1" t="s">
@@ -1315,21 +1209,21 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4"/>
       <c r="B21" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D21" s="5">
+      <c r="C21" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D21" s="5" t="n">
         <v>38244.9375</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="5" t="n">
         <v>38244.6875</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="5" t="n">
         <v>38245.1875</v>
       </c>
       <c r="G21" s="1" t="s">
@@ -1341,8 +1235,8 @@
       <c r="I21" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="J21" s="1">
-        <v>116.0</v>
+      <c r="J21" s="1" t="n">
+        <v>116</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>21</v>
@@ -1354,18 +1248,18 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
-      <c r="D22" s="5">
-        <v>38247.333333333336</v>
-      </c>
-      <c r="E22" s="5">
-        <v>38247.083333333336</v>
-      </c>
-      <c r="F22" s="5">
-        <v>38247.583333333336</v>
+      <c r="D22" s="5" t="n">
+        <v>38247.3333333333</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>38247.0833333333</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>38247.5833333333</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>18</v>
@@ -1376,7 +1270,7 @@
       <c r="I22" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22" s="1" t="n">
         <v>105.5</v>
       </c>
       <c r="K22" s="1" t="s">
@@ -1389,9 +1283,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1">
-        <v>2005.0</v>
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
+        <v>2005</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -1406,22 +1300,22 @@
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
     </row>
-    <row r="24">
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4"/>
       <c r="B24" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D24" s="5">
-        <v>38588.395833333336</v>
-      </c>
-      <c r="E24" s="5">
-        <v>38588.145833333336</v>
-      </c>
-      <c r="F24" s="5">
-        <v>38588.645833333336</v>
+      <c r="C24" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>38588.3958333333</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>38588.1458333333</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>38588.6458333333</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>78</v>
@@ -1432,7 +1326,7 @@
       <c r="I24" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J24" s="1" t="n">
         <v>100.7</v>
       </c>
       <c r="K24" s="1" t="s">
@@ -1445,22 +1339,22 @@
         <v>81</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4"/>
       <c r="B25" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C25" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D25" s="5">
-        <v>38595.354166666664</v>
-      </c>
-      <c r="E25" s="5">
-        <v>38595.104166666664</v>
-      </c>
-      <c r="F25" s="5">
-        <v>38595.604166666664</v>
+      <c r="C25" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D25" s="5" t="n">
+        <v>38595.3541666667</v>
+      </c>
+      <c r="E25" s="5" t="n">
+        <v>38595.1041666667</v>
+      </c>
+      <c r="F25" s="5" t="n">
+        <v>38595.6041666667</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>83</v>
@@ -1471,7 +1365,7 @@
       <c r="I25" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J25" s="1" t="n">
         <v>85.6</v>
       </c>
       <c r="K25" s="1" t="s">
@@ -1484,18 +1378,18 @@
         <v>81</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
-      <c r="D26" s="5">
-        <v>38600.083333333336</v>
-      </c>
-      <c r="E26" s="5">
-        <v>38599.833333333336</v>
-      </c>
-      <c r="F26" s="5">
-        <v>38600.333333333336</v>
+      <c r="D26" s="5" t="n">
+        <v>38600.0833333333</v>
+      </c>
+      <c r="E26" s="5" t="n">
+        <v>38599.8333333333</v>
+      </c>
+      <c r="F26" s="5" t="n">
+        <v>38600.3333333333</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>83</v>
@@ -1506,7 +1400,7 @@
       <c r="I26" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="J26" s="1">
+      <c r="J26" s="1" t="n">
         <v>76.2</v>
       </c>
       <c r="K26" s="1" t="s">
@@ -1519,9 +1413,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1">
-        <v>2016.0</v>
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
+        <v>2016</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1536,22 +1430,22 @@
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
     </row>
-    <row r="28">
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4"/>
       <c r="B28" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C28" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D28" s="5">
-        <v>42615.416666666664</v>
-      </c>
-      <c r="E28" s="5">
-        <v>42615.166666666664</v>
-      </c>
-      <c r="F28" s="5">
-        <v>42615.666666666664</v>
+      <c r="C28" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D28" s="5" t="n">
+        <v>42615.4166666667</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>42615.1666666667</v>
+      </c>
+      <c r="F28" s="5" t="n">
+        <v>42615.6666666667</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>83</v>
@@ -1562,7 +1456,7 @@
       <c r="I28" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="J28" s="1">
+      <c r="J28" s="1" t="n">
         <v>96.3</v>
       </c>
       <c r="K28" s="1" t="s">
@@ -1578,17 +1472,17 @@
         <v>92</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
-      <c r="D29" s="5">
+      <c r="D29" s="5" t="n">
         <v>42616.8125</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="5" t="n">
         <v>42616.5625</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29" s="5" t="n">
         <v>42617.0625</v>
       </c>
       <c r="G29" s="1" t="s">
@@ -1600,7 +1494,7 @@
       <c r="I29" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J29" s="1" t="n">
         <v>100.7</v>
       </c>
       <c r="K29" s="1" t="s">
@@ -1616,9 +1510,9 @@
         <v>92</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1">
-        <v>2017.0</v>
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="n">
+        <v>2017</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -1633,22 +1527,22 @@
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
     </row>
-    <row r="31">
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4"/>
       <c r="B31" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D31" s="8">
-        <v>42985.208333333336</v>
-      </c>
-      <c r="E31" s="9">
-        <v>42984.958333333336</v>
-      </c>
-      <c r="F31" s="9">
-        <v>42985.458333333336</v>
+      <c r="C31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" s="8" t="n">
+        <v>42985.2083333333</v>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>42984.9583333333</v>
+      </c>
+      <c r="F31" s="8" t="n">
+        <v>42985.4583333333</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>94</v>
@@ -1659,7 +1553,7 @@
       <c r="I31" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="J31" s="1">
+      <c r="J31" s="1" t="n">
         <v>130.4</v>
       </c>
       <c r="K31" s="1" t="s">
@@ -1672,21 +1566,21 @@
         <v>91</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4"/>
       <c r="B32" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C32" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D32" s="9">
-        <v>42992.0</v>
-      </c>
-      <c r="E32" s="9">
+      <c r="C32" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D32" s="8" t="n">
+        <v>42992</v>
+      </c>
+      <c r="E32" s="8" t="n">
         <v>42991.75</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F32" s="8" t="n">
         <v>42992.25</v>
       </c>
       <c r="G32" s="1" t="s">
@@ -1698,7 +1592,7 @@
       <c r="I32" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="J32" s="1">
+      <c r="J32" s="1" t="n">
         <v>75.1</v>
       </c>
       <c r="K32" s="1" t="s">
@@ -1711,17 +1605,17 @@
         <v>91</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
-      <c r="D33" s="5">
+      <c r="D33" s="5" t="n">
         <v>42995.25</v>
       </c>
-      <c r="E33" s="5">
-        <v>42995.0</v>
-      </c>
-      <c r="F33" s="5">
+      <c r="E33" s="5" t="n">
+        <v>42995</v>
+      </c>
+      <c r="F33" s="5" t="n">
         <v>42995.5</v>
       </c>
       <c r="G33" s="1" t="s">
@@ -1733,7 +1627,7 @@
       <c r="I33" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="J33" s="1">
+      <c r="J33" s="1" t="n">
         <v>72.9</v>
       </c>
       <c r="K33" s="1" t="s">
@@ -1746,9 +1640,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1">
-        <v>2018.0</v>
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="n">
+        <v>2018</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -1763,22 +1657,22 @@
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="4"/>
       <c r="B35" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C35" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D35" s="5">
-        <v>43337.770833333336</v>
-      </c>
-      <c r="E35" s="5">
-        <v>43337.520833333336</v>
-      </c>
-      <c r="F35" s="5">
-        <v>43338.020833333336</v>
+      <c r="C35" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D35" s="5" t="n">
+        <v>43337.7708333333</v>
+      </c>
+      <c r="E35" s="5" t="n">
+        <v>43337.5208333333</v>
+      </c>
+      <c r="F35" s="5" t="n">
+        <v>43338.0208333333</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>29</v>
@@ -1789,7 +1683,7 @@
       <c r="I35" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="J35" s="1">
+      <c r="J35" s="1" t="n">
         <v>73.1</v>
       </c>
       <c r="K35" s="1" t="s">
@@ -1802,17 +1696,17 @@
         <v>102</v>
       </c>
     </row>
-    <row r="36" ht="20.25" customHeight="1">
+    <row r="36" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
-      <c r="D36" s="6">
+      <c r="D36" s="6" t="n">
         <v>43340.0625</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36" s="5" t="n">
         <v>43339.8125</v>
       </c>
-      <c r="F36" s="5">
+      <c r="F36" s="5" t="n">
         <v>43340.3125</v>
       </c>
       <c r="G36" s="1" t="s">
@@ -1824,7 +1718,7 @@
       <c r="I36" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="J36" s="1">
+      <c r="J36" s="1" t="n">
         <v>70.6</v>
       </c>
       <c r="K36" s="1" t="s">
@@ -1837,21 +1731,21 @@
         <v>91</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4"/>
       <c r="B37" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C37" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D37" s="5">
+      <c r="C37" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" s="5" t="n">
         <v>43353.875</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E37" s="5" t="n">
         <v>43353.625</v>
       </c>
-      <c r="F37" s="5">
+      <c r="F37" s="5" t="n">
         <v>43354.125</v>
       </c>
       <c r="G37" s="1" t="s">
@@ -1863,7 +1757,7 @@
       <c r="I37" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="J37" s="1">
+      <c r="J37" s="1" t="n">
         <v>69.2</v>
       </c>
       <c r="K37" s="1" t="s">
@@ -1876,7 +1770,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -1891,7 +1785,7 @@
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
     </row>
-    <row r="39">
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -1906,16 +1800,261 @@
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
     </row>
-    <row r="40">
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-    </row>
-    <row r="46">
-      <c r="F46" s="11"/>
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+    </row>
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D42" s="10" t="n">
+        <v>37115.3333333333</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" s="10" t="n">
+        <v>37115.8333333333</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D43" s="10" t="n">
+        <v>37118</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F43" s="10" t="n">
+        <v>37118.375</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D44" s="10" t="n">
+        <v>37120.1666666667</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F44" s="10" t="n">
+        <v>37120.6666666667</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D45" s="10" t="n">
+        <v>37122.5833333333</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F45" s="10" t="n">
+        <v>37122.8541666667</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D46" s="10" t="n">
+        <v>37125.1666666667</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F46" s="11" t="n">
+        <v>37125.4270833333</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D47" s="10" t="n">
+        <v>37127.5</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F47" s="10" t="n">
+        <v>37127.6458333333</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D48" s="10" t="n">
+        <v>37129.8333333333</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F48" s="10" t="n">
+        <v>37130.2395833333</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D49" s="10" t="n">
+        <v>37132.1666666667</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F49" s="10" t="n">
+        <v>37132.4583333333</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D50" s="10" t="n">
+        <v>37134.3333333333</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F50" s="10" t="n">
+        <v>37134.7395833333</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D51" s="10" t="n">
+        <v>37139.1666666667</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F51" s="10" t="n">
+        <v>37139.46875</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D52" s="10" t="n">
+        <v>37144</v>
+      </c>
+      <c r="E52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F52" s="10" t="n">
+        <v>37144.3541666667</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D53" s="10" t="n">
+        <v>37146.3333333333</v>
+      </c>
+      <c r="E53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F53" s="10" t="n">
+        <v>37146.6041666667</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D54" s="10" t="n">
+        <v>37151</v>
+      </c>
+      <c r="E54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F54" s="10" t="n">
+        <v>37151.40625</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D55" s="10" t="n">
+        <v>37153.3333333333</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F55" s="10" t="n">
+        <v>37153.6979166667</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D56" s="10" t="n">
+        <v>37155.8333333333</v>
+      </c>
+      <c r="E56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F56" s="10" t="n">
+        <v>37156.21875</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D57" s="10" t="n">
+        <v>37158</v>
+      </c>
+      <c r="E57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F57" s="10" t="n">
+        <v>37158.375</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D58" s="10" t="n">
+        <v>37163</v>
+      </c>
+      <c r="E58" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F58" s="10" t="n">
+        <v>37163.2916666667</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D59" s="10" t="n">
+        <v>37165.3333333333</v>
+      </c>
+      <c r="E59" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F59" s="10" t="n">
+        <v>37165.4375</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D60" s="10" t="n">
+        <v>37167.8333333333</v>
+      </c>
+      <c r="E60" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F60" s="10" t="n">
+        <v>37168.03125</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D61" s="10" t="n">
+        <v>37170</v>
+      </c>
+      <c r="E61" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F61" s="10" t="n">
+        <v>37170.3333333333</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D62" s="10" t="n">
+        <v>37172.1666666667</v>
+      </c>
+      <c r="E62" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F62" s="10" t="n">
+        <v>37172.5833333333</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D63" s="10" t="n">
+        <v>37175</v>
+      </c>
+      <c r="E63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F63" s="10" t="n">
+        <v>37175.1875</v>
+      </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>